--- a/biology/Botanique/Parc_Kansen-en/Parc_Kansen-en.xlsx
+++ b/biology/Botanique/Parc_Kansen-en/Parc_Kansen-en.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le parc Kansen-en (甘泉園公園, Kansen-en Kōen?) est un jardin japonais situé dans l'arrondissement de  Shinjuku à Tokyo. Il couvre une superficie d'environ 14 000 m2.
 Ce petit parc était auparavant la résidence de la famille Shimizu, l'un des gosankyō des Tokugawa et l'une des plus importantes familles de l'époque d'Edo. Après la restauration de Meiji en 1867, sa propriété a été transférée au marquis Souma.
